--- a/Excel/MTO List For 64729.xlsx
+++ b/Excel/MTO List For 64729.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Python\NanTong_YNKS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB95A85-D042-4B68-A7F6-B46A540598FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22895E2-D441-4B8E-9295-038F56512E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24450" yWindow="-11970" windowWidth="21600" windowHeight="11295" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -947,9 +947,6 @@
     <t>P50BWAMHL</t>
   </si>
   <si>
-    <t>N2SP118</t>
-  </si>
-  <si>
     <t>P50BWAMHM</t>
   </si>
   <si>
@@ -1279,9 +1276,6 @@
     <t>289FVB</t>
   </si>
   <si>
-    <t>R9010</t>
-  </si>
-  <si>
     <t>320JVG</t>
   </si>
   <si>
@@ -1944,6 +1938,14 @@
   </si>
   <si>
     <t>Project Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2SA118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YC08E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1972,6 +1974,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2006,7 +2016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2036,6 +2046,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2315,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A97" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2326,7 +2342,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2334,7 +2350,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B2" s="1">
         <v>64729</v>
@@ -2342,7 +2358,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2382,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>178</v>
@@ -2394,25 +2410,25 @@
         <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>617</v>
-      </c>
       <c r="K8" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -6960,7 +6976,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6978,7 +6996,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6986,7 +7004,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B2" s="1">
         <v>64729</v>
@@ -6994,7 +7012,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>176</v>
@@ -7034,7 +7052,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>178</v>
@@ -7046,25 +7064,25 @@
         <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>617</v>
-      </c>
       <c r="K8" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -10471,8 +10489,8 @@
       <c r="G98" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>300</v>
+      <c r="H98" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>231</v>
@@ -10489,7 +10507,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -10510,7 +10528,7 @@
         <v>297</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>231</v>
@@ -10527,7 +10545,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -10551,7 +10569,7 @@
         <v>235</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -10565,7 +10583,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -10586,10 +10604,10 @@
         <v>184</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -10603,7 +10621,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -10627,7 +10645,7 @@
         <v>235</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -10641,7 +10659,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -10665,7 +10683,7 @@
         <v>235</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -10679,7 +10697,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B104" s="1">
         <v>4</v>
@@ -10703,7 +10721,7 @@
         <v>235</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -10717,7 +10735,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -10738,10 +10756,10 @@
         <v>184</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -10755,7 +10773,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -10776,10 +10794,10 @@
         <v>184</v>
       </c>
       <c r="H106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -10793,7 +10811,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -10814,10 +10832,10 @@
         <v>297</v>
       </c>
       <c r="H107" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -10831,7 +10849,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
@@ -10855,7 +10873,7 @@
         <v>235</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>
@@ -10869,7 +10887,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -10893,7 +10911,7 @@
         <v>235</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
@@ -10907,7 +10925,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
@@ -10931,7 +10949,7 @@
         <v>235</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -10945,7 +10963,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -10969,7 +10987,7 @@
         <v>235</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -10983,7 +11001,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
@@ -11004,10 +11022,10 @@
         <v>184</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -11021,7 +11039,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -11042,10 +11060,10 @@
         <v>184</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -11059,7 +11077,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
@@ -11083,7 +11101,7 @@
         <v>235</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J114" s="1">
         <v>1</v>
@@ -11097,7 +11115,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
@@ -11118,10 +11136,10 @@
         <v>184</v>
       </c>
       <c r="H115" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -11135,7 +11153,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B116" s="1">
         <v>9</v>
@@ -11159,7 +11177,7 @@
         <v>235</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J116" s="1">
         <v>1</v>
@@ -11173,7 +11191,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -11194,10 +11212,10 @@
         <v>184</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J117" s="1">
         <v>1</v>
@@ -11211,7 +11229,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -11232,10 +11250,10 @@
         <v>184</v>
       </c>
       <c r="H118" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="J118" s="1">
         <v>1</v>
@@ -11249,7 +11267,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
@@ -11264,7 +11282,7 @@
         <v>25</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>184</v>
@@ -11273,7 +11291,7 @@
         <v>235</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J119" s="1">
         <v>1</v>
@@ -11287,7 +11305,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
@@ -11302,7 +11320,7 @@
         <v>25</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>184</v>
@@ -11311,7 +11329,7 @@
         <v>235</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J120" s="1">
         <v>1</v>
@@ -11325,7 +11343,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -11340,7 +11358,7 @@
         <v>25</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>184</v>
@@ -11349,7 +11367,7 @@
         <v>235</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J121" s="1">
         <v>1</v>
@@ -11363,7 +11381,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B122" s="1">
         <v>4</v>
@@ -11378,7 +11396,7 @@
         <v>25</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>184</v>
@@ -11387,7 +11405,7 @@
         <v>235</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J122" s="1">
         <v>1</v>
@@ -11401,7 +11419,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -11416,7 +11434,7 @@
         <v>25</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>184</v>
@@ -11425,7 +11443,7 @@
         <v>235</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J123" s="1">
         <v>1</v>
@@ -11439,7 +11457,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B124" s="1">
         <v>26</v>
@@ -11454,7 +11472,7 @@
         <v>25</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>184</v>
@@ -11463,7 +11481,7 @@
         <v>235</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J124" s="1">
         <v>1</v>
@@ -11477,7 +11495,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -11492,7 +11510,7 @@
         <v>25</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>184</v>
@@ -11501,7 +11519,7 @@
         <v>235</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J125" s="1">
         <v>1</v>
@@ -11515,7 +11533,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
@@ -11530,16 +11548,16 @@
         <v>25</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="J126" s="1">
         <v>1</v>
@@ -11553,7 +11571,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -11568,7 +11586,7 @@
         <v>25</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>184</v>
@@ -11577,7 +11595,7 @@
         <v>235</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J127" s="1">
         <v>1</v>
@@ -11591,7 +11609,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
@@ -11606,7 +11624,7 @@
         <v>25</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>184</v>
@@ -11615,7 +11633,7 @@
         <v>235</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J128" s="1">
         <v>1</v>
@@ -11629,7 +11647,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
@@ -11644,16 +11662,16 @@
         <v>25</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="J129" s="1">
         <v>1</v>
@@ -11667,7 +11685,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -11691,7 +11709,7 @@
         <v>235</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J130" s="1">
         <v>1</v>
@@ -11705,7 +11723,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -11729,7 +11747,7 @@
         <v>235</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J131" s="1">
         <v>1</v>
@@ -11743,7 +11761,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -11764,10 +11782,10 @@
         <v>184</v>
       </c>
       <c r="H132" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="J132" s="1">
         <v>1</v>
@@ -11781,7 +11799,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -11805,7 +11823,7 @@
         <v>235</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J133" s="1">
         <v>1</v>
@@ -11819,7 +11837,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -11843,7 +11861,7 @@
         <v>235</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J134" s="1">
         <v>1</v>
@@ -11857,7 +11875,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
@@ -11878,10 +11896,10 @@
         <v>184</v>
       </c>
       <c r="H135" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="J135" s="1">
         <v>1</v>
@@ -11895,7 +11913,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -11919,7 +11937,7 @@
         <v>235</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -11933,7 +11951,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
@@ -11954,10 +11972,10 @@
         <v>184</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="J137" s="1">
         <v>1</v>
@@ -11971,7 +11989,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -11992,10 +12010,10 @@
         <v>184</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J138" s="1">
         <v>1</v>
@@ -12009,7 +12027,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -12030,10 +12048,10 @@
         <v>297</v>
       </c>
       <c r="H139" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="J139" s="1">
         <v>1</v>
@@ -12047,7 +12065,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -12068,10 +12086,10 @@
         <v>297</v>
       </c>
       <c r="H140" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -12085,7 +12103,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -12109,7 +12127,7 @@
         <v>235</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J141" s="1">
         <v>1</v>
@@ -12123,7 +12141,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B142" s="1">
         <v>1</v>
@@ -12147,7 +12165,7 @@
         <v>235</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J142" s="1">
         <v>1</v>
@@ -12161,7 +12179,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -12185,7 +12203,7 @@
         <v>235</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J143" s="1">
         <v>1</v>
@@ -12199,7 +12217,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B144" s="1">
         <v>1</v>
@@ -12223,7 +12241,7 @@
         <v>235</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J144" s="1">
         <v>1</v>
@@ -12237,7 +12255,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B145" s="1">
         <v>1</v>
@@ -12258,10 +12276,10 @@
         <v>184</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J145" s="1">
         <v>1</v>
@@ -12275,7 +12293,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -12296,10 +12314,10 @@
         <v>184</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J146" s="1">
         <v>1</v>
@@ -12313,7 +12331,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
@@ -12334,10 +12352,10 @@
         <v>184</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J147" s="1">
         <v>1</v>
@@ -12351,7 +12369,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B148" s="1">
         <v>5</v>
@@ -12375,7 +12393,7 @@
         <v>235</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J148" s="1">
         <v>1</v>
@@ -12389,7 +12407,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
@@ -12410,10 +12428,10 @@
         <v>184</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
@@ -12427,7 +12445,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
@@ -12448,10 +12466,10 @@
         <v>184</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J150" s="1">
         <v>1</v>
@@ -12465,7 +12483,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B151" s="1">
         <v>34</v>
@@ -12477,7 +12495,7 @@
         <v>118</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J151" s="1">
         <v>1</v>
@@ -12491,7 +12509,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B152" s="1">
         <v>19</v>
@@ -12503,7 +12521,7 @@
         <v>118</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J152" s="1">
         <v>1</v>
@@ -12517,7 +12535,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" s="1">
         <v>5</v>
@@ -12526,10 +12544,10 @@
         <v>2100</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="J153" s="1">
         <v>1</v>
@@ -12543,7 +12561,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B154" s="1">
         <v>4</v>
@@ -12551,11 +12569,11 @@
       <c r="D154" s="1">
         <v>2400</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>409</v>
+      <c r="F154" s="11" t="s">
+        <v>624</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J154" s="1">
         <v>1</v>
@@ -12569,7 +12587,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B155" s="1">
         <v>230</v>
@@ -12581,7 +12599,7 @@
         <v>118</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J155" s="1">
         <v>1</v>
@@ -12607,7 +12625,7 @@
         <v>118</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J156" s="1">
         <v>1</v>
@@ -12621,7 +12639,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B157" s="1">
         <v>33</v>
@@ -12630,10 +12648,10 @@
         <v>2400</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J157" s="1">
         <v>1</v>
@@ -12647,7 +12665,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B158" s="1">
         <v>5</v>
@@ -12656,10 +12674,10 @@
         <v>2400</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J158" s="1">
         <v>1</v>
@@ -12673,7 +12691,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B159" s="1">
         <v>33</v>
@@ -12682,10 +12700,10 @@
         <v>2400</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J159" s="1">
         <v>1</v>
@@ -12699,7 +12717,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B160" s="1">
         <v>70</v>
@@ -12708,10 +12726,10 @@
         <v>2400</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J160" s="1">
         <v>1</v>
@@ -12725,7 +12743,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B161" s="1">
         <v>70</v>
@@ -12734,10 +12752,10 @@
         <v>2400</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J161" s="1">
         <v>1</v>
@@ -12751,7 +12769,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B162" s="1">
         <v>1</v>
@@ -12760,10 +12778,10 @@
         <v>1915</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J162" s="1">
         <v>1</v>
@@ -12777,7 +12795,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
@@ -12786,10 +12804,10 @@
         <v>2100</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J163" s="1">
         <v>1</v>
@@ -12803,7 +12821,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B164" s="1">
         <v>3</v>
@@ -12815,7 +12833,7 @@
         <v>118</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J164" s="1">
         <v>1</v>
@@ -12829,7 +12847,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B165" s="1">
         <v>15</v>
@@ -12841,7 +12859,7 @@
         <v>118</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J165" s="1">
         <v>1</v>
@@ -12855,7 +12873,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B166" s="1">
         <v>6</v>
@@ -12867,7 +12885,7 @@
         <v>118</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J166" s="1">
         <v>1</v>
@@ -12881,7 +12899,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B167" s="1">
         <v>33</v>
@@ -12893,7 +12911,7 @@
         <v>118</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J167" s="1">
         <v>1</v>
@@ -12907,7 +12925,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B168" s="1">
         <v>1</v>
@@ -12916,10 +12934,10 @@
         <v>2000</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J168" s="1">
         <v>1</v>
@@ -12933,7 +12951,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B169" s="1">
         <v>3</v>
@@ -12942,10 +12960,10 @@
         <v>2400</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="J169" s="1">
         <v>1</v>
@@ -12959,7 +12977,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B170" s="1">
         <v>13</v>
@@ -12968,10 +12986,10 @@
         <v>2400</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J170" s="1">
         <v>1</v>
@@ -12985,7 +13003,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B171" s="1">
         <v>13</v>
@@ -12994,10 +13012,10 @@
         <v>2400</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J171" s="1">
         <v>1</v>
@@ -13011,7 +13029,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B172" s="1">
         <v>3</v>
@@ -13020,10 +13038,10 @@
         <v>2100</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J172" s="1">
         <v>1</v>
@@ -13037,7 +13055,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B173" s="1">
         <v>2</v>
@@ -13046,10 +13064,10 @@
         <v>2400</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J173" s="1">
         <v>1</v>
@@ -13063,7 +13081,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B174" s="1">
         <v>8</v>
@@ -13072,10 +13090,10 @@
         <v>2400</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J174" s="1">
         <v>1</v>
@@ -13089,7 +13107,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B175" s="1">
         <v>13</v>
@@ -13101,7 +13119,7 @@
         <v>118</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J175" s="1">
         <v>1</v>
@@ -13115,7 +13133,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B176" s="1">
         <v>8</v>
@@ -13127,7 +13145,7 @@
         <v>118</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J176" s="1">
         <v>1</v>
@@ -13141,7 +13159,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B177" s="1">
         <v>3</v>
@@ -13153,7 +13171,7 @@
         <v>118</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J177" s="1">
         <v>1</v>
@@ -13167,7 +13185,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B178" s="1">
         <v>10</v>
@@ -13179,7 +13197,7 @@
         <v>118</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J178" s="1">
         <v>1</v>
@@ -13193,7 +13211,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B179" s="1">
         <v>1</v>
@@ -13202,10 +13220,10 @@
         <v>1905</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J179" s="1">
         <v>1</v>
@@ -13219,7 +13237,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
@@ -13228,10 +13246,10 @@
         <v>1925</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J180" s="1">
         <v>1</v>
@@ -13245,7 +13263,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B181" s="1">
         <v>8</v>
@@ -13257,7 +13275,7 @@
         <v>118</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J181" s="1">
         <v>1</v>
@@ -13271,7 +13289,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B182" s="1">
         <v>8</v>
@@ -13283,7 +13301,7 @@
         <v>118</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -13297,7 +13315,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B183" s="1">
         <v>22</v>
@@ -13309,7 +13327,7 @@
         <v>118</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J183" s="1">
         <v>1</v>
@@ -13323,7 +13341,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B184" s="1">
         <v>34</v>
@@ -13338,16 +13356,16 @@
         <v>50</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J184" s="1">
         <v>1</v>
@@ -13362,7 +13380,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B185" s="1">
         <v>64</v>
@@ -13377,16 +13395,16 @@
         <v>50</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J185" s="1">
         <v>1</v>
@@ -13401,7 +13419,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B186" s="1">
         <v>32</v>
@@ -13416,16 +13434,16 @@
         <v>50</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J186" s="1">
         <v>1</v>
@@ -13440,7 +13458,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B187" s="1">
         <v>18</v>
@@ -13455,16 +13473,16 @@
         <v>50</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J187" s="1">
         <v>1</v>
@@ -13479,7 +13497,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B188" s="1">
         <v>18</v>
@@ -13494,16 +13512,16 @@
         <v>50</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J188" s="1">
         <v>1</v>
@@ -13518,7 +13536,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B189" s="1">
         <v>18</v>
@@ -13533,16 +13551,16 @@
         <v>50</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J189" s="1">
         <v>1</v>
@@ -13557,7 +13575,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -13572,16 +13590,16 @@
         <v>50</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J190" s="1">
         <v>1</v>
@@ -13596,7 +13614,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B191" s="1">
         <v>16</v>
@@ -13611,16 +13629,16 @@
         <v>50</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J191" s="1">
         <v>1</v>
@@ -13635,7 +13653,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
@@ -13650,16 +13668,16 @@
         <v>50</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J192" s="1">
         <v>1</v>
@@ -13674,7 +13692,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B193" s="1">
         <v>7</v>
@@ -13689,16 +13707,16 @@
         <v>50</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J193" s="1">
         <v>1</v>
@@ -13713,7 +13731,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B194" s="1">
         <v>2</v>
@@ -13728,16 +13746,16 @@
         <v>50</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J194" s="1">
         <v>1</v>
@@ -13752,7 +13770,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B195" s="1">
         <v>17</v>
@@ -13767,16 +13785,16 @@
         <v>50</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I195" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J195" s="1">
         <v>1</v>
@@ -13791,7 +13809,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B196" s="1">
         <v>1</v>
@@ -13806,16 +13824,16 @@
         <v>50</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J196" s="1">
         <v>1</v>
@@ -13830,7 +13848,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -13845,16 +13863,16 @@
         <v>50</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J197" s="1">
         <v>1</v>
@@ -13869,7 +13887,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B198" s="1">
         <v>1</v>
@@ -13884,16 +13902,16 @@
         <v>50</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J198" s="1">
         <v>1</v>
@@ -13908,7 +13926,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B199" s="1">
         <v>1</v>
@@ -13923,16 +13941,16 @@
         <v>50</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J199" s="1">
         <v>1</v>
@@ -13947,7 +13965,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B200" s="1">
         <v>17</v>
@@ -13962,16 +13980,16 @@
         <v>50</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J200" s="1">
         <v>1</v>
@@ -13986,7 +14004,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B201" s="1">
         <v>12</v>
@@ -14001,16 +14019,16 @@
         <v>50</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J201" s="1">
         <v>1</v>
@@ -14025,7 +14043,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
@@ -14040,16 +14058,16 @@
         <v>50</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J202" s="1">
         <v>1</v>
@@ -14064,7 +14082,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B203" s="1">
         <v>19</v>
@@ -14079,16 +14097,16 @@
         <v>50</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J203" s="1">
         <v>1</v>
@@ -14103,7 +14121,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B204" s="1">
         <v>5</v>
@@ -14118,16 +14136,16 @@
         <v>50</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J204" s="1">
         <v>1</v>
@@ -14142,7 +14160,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B205" s="1">
         <v>5</v>
@@ -14157,16 +14175,16 @@
         <v>50</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>409</v>
+        <v>117</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J205" s="1">
         <v>1</v>
@@ -14189,7 +14207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14208,7 +14226,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -14216,7 +14234,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B2" s="1">
         <v>64729</v>
@@ -14224,10 +14242,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -14245,7 +14263,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -14258,7 +14276,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>178</v>
@@ -14270,30 +14288,30 @@
         <v>180</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>617</v>
-      </c>
       <c r="K8" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -14308,16 +14326,16 @@
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J9" s="1">
         <v>10</v>
@@ -14328,7 +14346,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -14343,16 +14361,16 @@
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J10" s="1">
         <v>10</v>
@@ -14363,7 +14381,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -14378,16 +14396,16 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J11" s="1">
         <v>10</v>
@@ -14398,7 +14416,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -14413,16 +14431,16 @@
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J12" s="1">
         <v>10</v>
@@ -14433,7 +14451,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -14448,7 +14466,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>184</v>
@@ -14457,7 +14475,7 @@
         <v>235</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J13" s="1">
         <v>10</v>
@@ -14468,7 +14486,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -14483,16 +14501,16 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J14" s="1">
         <v>10</v>
@@ -14503,7 +14521,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -14518,7 +14536,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>184</v>
@@ -14527,7 +14545,7 @@
         <v>189</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J15" s="1">
         <v>10</v>
@@ -14538,7 +14556,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -14553,16 +14571,16 @@
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J16" s="1">
         <v>10</v>
@@ -14573,7 +14591,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
@@ -14588,7 +14606,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>184</v>
@@ -14597,7 +14615,7 @@
         <v>189</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J17" s="1">
         <v>10</v>
@@ -14608,7 +14626,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -14623,16 +14641,16 @@
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J18" s="1">
         <v>10</v>
@@ -14643,7 +14661,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -14658,16 +14676,16 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
@@ -14678,7 +14696,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -14693,7 +14711,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>184</v>
@@ -14702,7 +14720,7 @@
         <v>235</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J20" s="1">
         <v>10</v>
@@ -14713,7 +14731,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -14728,7 +14746,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>184</v>
@@ -14737,7 +14755,7 @@
         <v>189</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J21" s="1">
         <v>10</v>
@@ -14748,7 +14766,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -14763,16 +14781,16 @@
         <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J22" s="1">
         <v>10</v>
@@ -14783,7 +14801,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -14798,16 +14816,16 @@
         <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J23" s="1">
         <v>10</v>
@@ -14818,7 +14836,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -14833,16 +14851,16 @@
         <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J24" s="1">
         <v>10</v>
@@ -14853,7 +14871,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -14868,7 +14886,7 @@
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>184</v>
@@ -14877,7 +14895,7 @@
         <v>235</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J25" s="1">
         <v>10</v>
@@ -14888,7 +14906,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -14903,16 +14921,16 @@
         <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J26" s="1">
         <v>10</v>
@@ -14923,7 +14941,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -14938,16 +14956,16 @@
         <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J27" s="1">
         <v>10</v>
@@ -14958,7 +14976,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -14973,16 +14991,16 @@
         <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J28" s="1">
         <v>10</v>
@@ -14993,7 +15011,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -15008,7 +15026,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>184</v>
@@ -15017,7 +15035,7 @@
         <v>189</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J29" s="1">
         <v>10</v>
@@ -15028,7 +15046,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -15043,16 +15061,16 @@
         <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J30" s="1">
         <v>10</v>
@@ -15063,7 +15081,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
@@ -15078,7 +15096,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>184</v>
@@ -15087,7 +15105,7 @@
         <v>235</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J31" s="1">
         <v>10</v>
@@ -15098,7 +15116,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -15113,7 +15131,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>184</v>
@@ -15122,7 +15140,7 @@
         <v>189</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J32" s="1">
         <v>10</v>
@@ -15133,7 +15151,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -15148,16 +15166,16 @@
         <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J33" s="1">
         <v>10</v>
@@ -15168,7 +15186,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -15183,16 +15201,16 @@
         <v>25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J34" s="1">
         <v>10</v>
@@ -15203,7 +15221,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -15218,16 +15236,16 @@
         <v>25</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J35" s="1">
         <v>10</v>
@@ -15238,7 +15256,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
@@ -15253,16 +15271,16 @@
         <v>25</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J36" s="1">
         <v>10</v>
@@ -15273,7 +15291,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -15288,16 +15306,16 @@
         <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J37" s="1">
         <v>10</v>
@@ -15308,7 +15326,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -15323,16 +15341,16 @@
         <v>25</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J38" s="1">
         <v>10</v>
@@ -15343,7 +15361,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -15358,16 +15376,16 @@
         <v>25</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J39" s="1">
         <v>10</v>
@@ -15378,7 +15396,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -15393,7 +15411,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>184</v>
@@ -15402,7 +15420,7 @@
         <v>189</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J40" s="1">
         <v>9</v>
@@ -15413,7 +15431,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -15428,7 +15446,7 @@
         <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>184</v>
@@ -15437,7 +15455,7 @@
         <v>189</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J41" s="1">
         <v>9</v>
@@ -15448,7 +15466,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -15463,7 +15481,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>184</v>
@@ -15472,7 +15490,7 @@
         <v>189</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J42" s="1">
         <v>9</v>
@@ -15483,7 +15501,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -15498,7 +15516,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>184</v>
@@ -15507,7 +15525,7 @@
         <v>189</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J43" s="1">
         <v>9</v>
@@ -15518,7 +15536,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -15533,16 +15551,16 @@
         <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J44" s="1">
         <v>9</v>
@@ -15553,7 +15571,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -15568,16 +15586,16 @@
         <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J45" s="1">
         <v>9</v>
@@ -15588,7 +15606,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -15603,7 +15621,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>184</v>
@@ -15612,7 +15630,7 @@
         <v>189</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J46" s="1">
         <v>9</v>
@@ -15623,7 +15641,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -15638,16 +15656,16 @@
         <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J47" s="1">
         <v>9</v>
@@ -15658,7 +15676,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -15673,16 +15691,16 @@
         <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J48" s="1">
         <v>9</v>
@@ -15693,7 +15711,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -15708,7 +15726,7 @@
         <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>184</v>
@@ -15717,7 +15735,7 @@
         <v>189</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J49" s="1">
         <v>8</v>
@@ -15728,7 +15746,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -15743,7 +15761,7 @@
         <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>184</v>
@@ -15752,7 +15770,7 @@
         <v>189</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J50" s="1">
         <v>8</v>
@@ -15763,7 +15781,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -15778,16 +15796,16 @@
         <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J51" s="1">
         <v>8</v>
@@ -15798,7 +15816,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -15813,7 +15831,7 @@
         <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>184</v>
@@ -15822,7 +15840,7 @@
         <v>189</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J52" s="1">
         <v>8</v>
@@ -15833,7 +15851,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -15848,7 +15866,7 @@
         <v>25</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>184</v>
@@ -15857,7 +15875,7 @@
         <v>189</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J53" s="1">
         <v>8</v>
@@ -15868,7 +15886,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -15883,7 +15901,7 @@
         <v>25</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>184</v>
@@ -15892,7 +15910,7 @@
         <v>189</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J54" s="1">
         <v>8</v>
@@ -15903,7 +15921,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -15918,7 +15936,7 @@
         <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>184</v>
@@ -15927,7 +15945,7 @@
         <v>189</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J55" s="1">
         <v>8</v>
@@ -15938,7 +15956,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -15953,16 +15971,16 @@
         <v>25</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J56" s="1">
         <v>8</v>
@@ -15973,7 +15991,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B57" s="1">
         <v>3</v>
@@ -15988,16 +16006,16 @@
         <v>25</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J57" s="1">
         <v>8</v>
@@ -16008,7 +16026,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
@@ -16023,7 +16041,7 @@
         <v>25</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>184</v>
@@ -16032,7 +16050,7 @@
         <v>189</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J58" s="1">
         <v>8</v>
@@ -16043,7 +16061,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -16058,16 +16076,16 @@
         <v>25</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J59" s="1">
         <v>8</v>
@@ -16078,7 +16096,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
@@ -16093,16 +16111,16 @@
         <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J60" s="1">
         <v>8</v>
@@ -16113,7 +16131,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -16128,7 +16146,7 @@
         <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>184</v>
@@ -16137,7 +16155,7 @@
         <v>189</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J61" s="1">
         <v>7</v>
@@ -16148,7 +16166,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -16163,7 +16181,7 @@
         <v>25</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>184</v>
@@ -16172,7 +16190,7 @@
         <v>189</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J62" s="1">
         <v>7</v>
@@ -16183,7 +16201,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -16198,7 +16216,7 @@
         <v>25</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>184</v>
@@ -16207,7 +16225,7 @@
         <v>189</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J63" s="1">
         <v>7</v>
@@ -16218,7 +16236,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -16233,7 +16251,7 @@
         <v>25</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>184</v>
@@ -16242,7 +16260,7 @@
         <v>189</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J64" s="1">
         <v>7</v>
@@ -16253,7 +16271,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -16268,7 +16286,7 @@
         <v>25</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>184</v>
@@ -16277,7 +16295,7 @@
         <v>189</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J65" s="1">
         <v>7</v>
@@ -16288,7 +16306,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -16303,16 +16321,16 @@
         <v>25</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J66" s="1">
         <v>7</v>
@@ -16323,7 +16341,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -16338,7 +16356,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>184</v>
@@ -16347,7 +16365,7 @@
         <v>189</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J67" s="1">
         <v>7</v>
@@ -16358,7 +16376,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B68" s="1">
         <v>5</v>
@@ -16373,7 +16391,7 @@
         <v>25</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>184</v>
@@ -16382,7 +16400,7 @@
         <v>189</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J68" s="1">
         <v>7</v>
@@ -16393,7 +16411,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -16408,16 +16426,16 @@
         <v>25</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J69" s="1">
         <v>7</v>
@@ -16428,7 +16446,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B70" s="1">
         <v>3</v>
@@ -16443,16 +16461,16 @@
         <v>25</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J70" s="1">
         <v>7</v>
@@ -16463,7 +16481,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -16478,16 +16496,16 @@
         <v>25</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J71" s="1">
         <v>7</v>
@@ -16498,7 +16516,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -16513,7 +16531,7 @@
         <v>25</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>184</v>
@@ -16522,7 +16540,7 @@
         <v>235</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J72" s="1">
         <v>6</v>
@@ -16533,7 +16551,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -16548,7 +16566,7 @@
         <v>25</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>184</v>
@@ -16557,7 +16575,7 @@
         <v>235</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J73" s="1">
         <v>6</v>
@@ -16568,7 +16586,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -16583,16 +16601,16 @@
         <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J74" s="1">
         <v>6</v>
@@ -16603,7 +16621,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -16618,16 +16636,16 @@
         <v>25</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J75" s="1">
         <v>6</v>
@@ -16638,7 +16656,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B76" s="1">
         <v>2</v>
@@ -16653,7 +16671,7 @@
         <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>184</v>
@@ -16662,7 +16680,7 @@
         <v>235</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J76" s="1">
         <v>6</v>
@@ -16673,7 +16691,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
@@ -16688,7 +16706,7 @@
         <v>25</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>184</v>
@@ -16697,7 +16715,7 @@
         <v>189</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J77" s="1">
         <v>6</v>
@@ -16708,7 +16726,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B78" s="1">
         <v>3</v>
@@ -16723,16 +16741,16 @@
         <v>25</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J78" s="1">
         <v>6</v>
@@ -16743,7 +16761,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -16758,16 +16776,16 @@
         <v>25</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J79" s="1">
         <v>6</v>
@@ -16778,7 +16796,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B80" s="1">
         <v>2</v>
@@ -16793,16 +16811,16 @@
         <v>25</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J80" s="1">
         <v>6</v>
@@ -16813,7 +16831,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -16828,16 +16846,16 @@
         <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J81" s="1">
         <v>6</v>
@@ -16848,7 +16866,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -16863,7 +16881,7 @@
         <v>25</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>184</v>
@@ -16872,7 +16890,7 @@
         <v>235</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J82" s="1">
         <v>6</v>
@@ -16883,7 +16901,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -16898,16 +16916,16 @@
         <v>25</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J83" s="1">
         <v>6</v>
@@ -16918,7 +16936,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -16933,7 +16951,7 @@
         <v>25</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>184</v>
@@ -16942,7 +16960,7 @@
         <v>235</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J84" s="1">
         <v>5</v>
@@ -16953,7 +16971,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
@@ -16968,7 +16986,7 @@
         <v>25</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>184</v>
@@ -16977,7 +16995,7 @@
         <v>235</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J85" s="1">
         <v>5</v>
@@ -16988,7 +17006,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -17003,16 +17021,16 @@
         <v>25</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J86" s="1">
         <v>5</v>
@@ -17023,7 +17041,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
@@ -17038,16 +17056,16 @@
         <v>25</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J87" s="1">
         <v>5</v>
@@ -17058,7 +17076,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B88" s="1">
         <v>2</v>
@@ -17073,7 +17091,7 @@
         <v>25</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>184</v>
@@ -17082,7 +17100,7 @@
         <v>235</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J88" s="1">
         <v>5</v>
@@ -17093,7 +17111,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -17108,7 +17126,7 @@
         <v>25</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>184</v>
@@ -17117,7 +17135,7 @@
         <v>189</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J89" s="1">
         <v>5</v>
@@ -17128,7 +17146,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
@@ -17143,16 +17161,16 @@
         <v>25</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J90" s="1">
         <v>5</v>
@@ -17163,7 +17181,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -17178,16 +17196,16 @@
         <v>25</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J91" s="1">
         <v>5</v>
@@ -17198,7 +17216,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B92" s="1">
         <v>2</v>
@@ -17213,16 +17231,16 @@
         <v>25</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J92" s="1">
         <v>5</v>
@@ -17233,7 +17251,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B93" s="1">
         <v>2</v>
@@ -17248,16 +17266,16 @@
         <v>25</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J93" s="1">
         <v>5</v>
@@ -17268,7 +17286,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -17283,16 +17301,16 @@
         <v>25</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J94" s="1">
         <v>5</v>
@@ -17303,7 +17321,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
@@ -17318,7 +17336,7 @@
         <v>25</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>184</v>
@@ -17327,7 +17345,7 @@
         <v>235</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J95" s="1">
         <v>5</v>
@@ -17338,7 +17356,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -17353,16 +17371,16 @@
         <v>25</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J96" s="1">
         <v>5</v>
@@ -17373,7 +17391,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -17388,7 +17406,7 @@
         <v>25</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>184</v>
@@ -17397,7 +17415,7 @@
         <v>189</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J97" s="1">
         <v>4</v>
@@ -17408,7 +17426,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B98" s="1">
         <v>11</v>
@@ -17423,7 +17441,7 @@
         <v>25</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>184</v>
@@ -17432,7 +17450,7 @@
         <v>189</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J98" s="1">
         <v>4</v>
@@ -17443,7 +17461,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
@@ -17458,16 +17476,16 @@
         <v>25</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J99" s="1">
         <v>4</v>
@@ -17478,7 +17496,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -17493,16 +17511,16 @@
         <v>25</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J100" s="1">
         <v>4</v>
@@ -17513,7 +17531,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -17528,7 +17546,7 @@
         <v>25</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>184</v>
@@ -17537,7 +17555,7 @@
         <v>189</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J101" s="1">
         <v>4</v>
@@ -17548,7 +17566,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -17563,16 +17581,16 @@
         <v>25</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J102" s="1">
         <v>4</v>
@@ -17583,7 +17601,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -17598,16 +17616,16 @@
         <v>25</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J103" s="1">
         <v>4</v>
@@ -17618,7 +17636,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -17633,16 +17651,16 @@
         <v>25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J104" s="1">
         <v>4</v>
@@ -17653,7 +17671,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -17668,7 +17686,7 @@
         <v>25</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>184</v>
@@ -17677,7 +17695,7 @@
         <v>189</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J105" s="1">
         <v>4</v>
@@ -17688,7 +17706,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -17703,7 +17721,7 @@
         <v>25</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>184</v>
@@ -17712,7 +17730,7 @@
         <v>189</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J106" s="1">
         <v>4</v>
@@ -17723,7 +17741,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -17738,16 +17756,16 @@
         <v>25</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J107" s="1">
         <v>3</v>
@@ -17758,7 +17776,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
@@ -17773,7 +17791,7 @@
         <v>25</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>184</v>
@@ -17782,7 +17800,7 @@
         <v>235</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J108" s="1">
         <v>3</v>
@@ -17793,7 +17811,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -17808,16 +17826,16 @@
         <v>25</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J109" s="1">
         <v>3</v>
@@ -17828,7 +17846,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
@@ -17843,7 +17861,7 @@
         <v>25</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>184</v>
@@ -17852,7 +17870,7 @@
         <v>235</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J110" s="1">
         <v>3</v>
@@ -17863,7 +17881,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -17878,16 +17896,16 @@
         <v>25</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J111" s="1">
         <v>3</v>
@@ -17898,7 +17916,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
@@ -17913,7 +17931,7 @@
         <v>25</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>184</v>
@@ -17922,7 +17940,7 @@
         <v>235</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J112" s="1">
         <v>3</v>
@@ -17933,7 +17951,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B113" s="1">
         <v>4</v>
@@ -17948,7 +17966,7 @@
         <v>25</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>184</v>
@@ -17957,7 +17975,7 @@
         <v>189</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J113" s="1">
         <v>3</v>
@@ -17968,7 +17986,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
@@ -17983,16 +18001,16 @@
         <v>25</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J114" s="1">
         <v>3</v>
@@ -18003,7 +18021,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
@@ -18018,16 +18036,16 @@
         <v>25</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J115" s="1">
         <v>3</v>
@@ -18038,7 +18056,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -18053,16 +18071,16 @@
         <v>25</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J116" s="1">
         <v>3</v>
@@ -18073,7 +18091,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -18088,16 +18106,16 @@
         <v>25</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J117" s="1">
         <v>3</v>
@@ -18108,7 +18126,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -18123,16 +18141,16 @@
         <v>25</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J118" s="1">
         <v>3</v>
@@ -18143,7 +18161,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
@@ -18158,16 +18176,16 @@
         <v>25</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J119" s="1">
         <v>3</v>
@@ -18178,7 +18196,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
@@ -18193,7 +18211,7 @@
         <v>25</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>184</v>
@@ -18202,7 +18220,7 @@
         <v>189</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J120" s="1">
         <v>2</v>
@@ -18213,7 +18231,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B121" s="1">
         <v>9</v>
@@ -18228,7 +18246,7 @@
         <v>25</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>184</v>
@@ -18237,7 +18255,7 @@
         <v>189</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J121" s="1">
         <v>2</v>
@@ -18248,7 +18266,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B122" s="1">
         <v>1</v>
@@ -18263,7 +18281,7 @@
         <v>25</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>184</v>
@@ -18272,7 +18290,7 @@
         <v>189</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J122" s="1">
         <v>2</v>
@@ -18283,7 +18301,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -18298,16 +18316,16 @@
         <v>25</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J123" s="1">
         <v>2</v>
@@ -18318,7 +18336,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
@@ -18333,16 +18351,16 @@
         <v>25</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J124" s="1">
         <v>2</v>
@@ -18353,7 +18371,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -18368,16 +18386,16 @@
         <v>25</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J125" s="1">
         <v>2</v>
@@ -18388,7 +18406,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
@@ -18403,16 +18421,16 @@
         <v>25</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J126" s="1">
         <v>2</v>
@@ -18423,7 +18441,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
@@ -18438,16 +18456,16 @@
         <v>25</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J127" s="1">
         <v>2</v>
@@ -18458,7 +18476,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B128" s="1">
         <v>2</v>
@@ -18473,16 +18491,16 @@
         <v>25</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J128" s="1">
         <v>2</v>
@@ -18493,7 +18511,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
@@ -18508,7 +18526,7 @@
         <v>25</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>184</v>
@@ -18517,7 +18535,7 @@
         <v>189</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J129" s="1">
         <v>2</v>
@@ -18528,7 +18546,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -18543,16 +18561,16 @@
         <v>25</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>184</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J130" s="1">
         <v>2</v>
@@ -18563,7 +18581,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -18578,7 +18596,7 @@
         <v>25</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>184</v>
@@ -18587,7 +18605,7 @@
         <v>189</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J131" s="1">
         <v>2</v>
@@ -18598,7 +18616,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -18613,7 +18631,7 @@
         <v>25</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>184</v>
@@ -18622,7 +18640,7 @@
         <v>189</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J132" s="1">
         <v>2</v>
@@ -18633,7 +18651,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B133" s="1">
         <v>2</v>
@@ -18654,10 +18672,10 @@
         <v>184</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J133" s="1">
         <v>9</v>
@@ -18668,7 +18686,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -18689,10 +18707,10 @@
         <v>184</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J134" s="1">
         <v>8</v>
@@ -18703,7 +18721,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B135" s="1">
         <v>2</v>
@@ -18724,10 +18742,10 @@
         <v>184</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J135" s="1">
         <v>7</v>
@@ -18738,7 +18756,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
@@ -18759,10 +18777,10 @@
         <v>184</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -18773,7 +18791,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B137" s="1">
         <v>1</v>
@@ -18794,10 +18812,10 @@
         <v>184</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J137" s="1">
         <v>6</v>
@@ -18808,7 +18826,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -18829,10 +18847,10 @@
         <v>184</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J138" s="1">
         <v>7</v>
@@ -18843,7 +18861,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -18864,10 +18882,10 @@
         <v>184</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J139" s="1">
         <v>3</v>
@@ -18878,7 +18896,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -18899,10 +18917,10 @@
         <v>184</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -18913,7 +18931,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -18934,10 +18952,10 @@
         <v>184</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J141" s="1">
         <v>6</v>
@@ -18948,7 +18966,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B142" s="1">
         <v>1</v>
@@ -18969,10 +18987,10 @@
         <v>184</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J142" s="1">
         <v>5</v>
@@ -18983,7 +19001,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -19004,10 +19022,10 @@
         <v>184</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J143" s="1">
         <v>3</v>
@@ -19018,7 +19036,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B144" s="1">
         <v>224</v>
@@ -19030,10 +19048,10 @@
         <v>13</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L144">
         <v>3</v>
@@ -19041,7 +19059,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B145" s="1">
         <v>6</v>
@@ -19053,10 +19071,10 @@
         <v>13</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L145">
         <v>3</v>
@@ -19064,7 +19082,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B146" s="1">
         <v>20</v>
@@ -19076,10 +19094,10 @@
         <v>13</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L146">
         <v>3</v>
@@ -19087,7 +19105,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B147" s="1">
         <v>13</v>
@@ -19096,13 +19114,13 @@
         <v>2400</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L147">
         <v>3</v>
@@ -19110,7 +19128,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B148" s="1">
         <v>18</v>
@@ -19119,13 +19137,13 @@
         <v>2400</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L148">
         <v>3</v>
@@ -19133,7 +19151,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B149" s="1">
         <v>28</v>
@@ -19142,13 +19160,13 @@
         <v>2400</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="I149" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L149">
         <v>3</v>
@@ -19156,7 +19174,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
@@ -19168,10 +19186,10 @@
         <v>13</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L150">
         <v>3</v>
@@ -19179,7 +19197,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B151" s="1">
         <v>2</v>
@@ -19188,13 +19206,13 @@
         <v>2400</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L151">
         <v>3</v>
@@ -19202,7 +19220,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B152" s="1">
         <v>4</v>
@@ -19211,13 +19229,13 @@
         <v>2400</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L152">
         <v>3</v>
